--- a/Assets/Game/Content/Data/EffectTable.xlsx
+++ b/Assets/Game/Content/Data/EffectTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProj\NineLivesAtlier\Assets\Game\Content\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F07B80C-AB48-4360-8CE6-43D3C67F4D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F9143-6A78-4197-8DBC-3F3AEA30AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="164">
   <si>
     <t>Id</t>
   </si>
@@ -439,102 +439,155 @@
   </si>
   <si>
     <t>获得坚固</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获得反射</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>施加反射</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Sturdy_Self</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Reflect_Self</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Reflect_Enemy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Effect_Buff_Stun_Enemy_Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Sturdy_Self_Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Reflect_Self_Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Reflect_Enemy_Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Draw_Peace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Draw_Focus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>集中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>若上次行动后没有受到伤害则触发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Focus</t>
   </si>
   <si>
     <t>Focus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Effect_Calm_Peace_Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Effect_Draw_Focus_Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Stun_Enemy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Damage_Focus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Effect_Damage_Focus_Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘风_伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘风</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若顺风值大于0则触发</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage_Windborne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Damage_Windborne_Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windborne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,6 +611,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -678,39 +738,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -987,13 +1048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="22.796875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -1004,7 +1065,7 @@
     <col min="9" max="9" width="53.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1060,15 +1121,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
@@ -1082,15 +1143,15 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
@@ -1106,15 +1167,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1130,15 +1191,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
@@ -1154,15 +1215,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
@@ -1178,15 +1239,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
@@ -1202,15 +1263,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
@@ -1226,172 +1287,181 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -1406,7 +1476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
@@ -1421,7 +1491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>154</v>
       </c>
@@ -1436,7 +1506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>138</v>
       </c>
@@ -1451,7 +1521,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>139</v>
       </c>
@@ -1466,7 +1536,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>140</v>
       </c>
@@ -1481,7 +1551,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="10" t="s">
         <v>91</v>
       </c>
@@ -1493,7 +1563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
         <v>93</v>
       </c>
@@ -1505,7 +1575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
         <v>95</v>
       </c>
@@ -1517,7 +1587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="10" t="s">
         <v>97</v>
       </c>
@@ -1529,7 +1599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -1541,7 +1611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
@@ -1553,7 +1623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
         <v>103</v>
       </c>
@@ -1565,7 +1635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
         <v>105</v>
       </c>
@@ -1577,7 +1647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
         <v>107</v>
       </c>
@@ -1589,7 +1659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
@@ -1601,7 +1671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
         <v>133</v>
       </c>
@@ -1613,7 +1683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
         <v>111</v>
       </c>
@@ -1625,7 +1695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
         <v>113</v>
       </c>
@@ -1637,7 +1707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
         <v>115</v>
       </c>
@@ -1649,7 +1719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="10" t="s">
         <v>117</v>
       </c>
@@ -1661,7 +1731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
         <v>119</v>
       </c>
@@ -1673,7 +1743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="5" t="s">
         <v>121</v>
       </c>
@@ -1685,7 +1755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="5" t="s">
         <v>123</v>
       </c>
@@ -1697,7 +1767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="5" t="s">
         <v>125</v>
       </c>
@@ -1709,7 +1779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
         <v>127</v>
       </c>
@@ -1721,7 +1791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="10" t="s">
         <v>145</v>
       </c>
@@ -1733,7 +1803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="10" t="s">
         <v>130</v>
       </c>
@@ -1745,7 +1815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="10" t="s">
         <v>132</v>
       </c>
@@ -1757,7 +1827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
         <v>146</v>
       </c>
@@ -1769,7 +1839,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
         <v>155</v>
       </c>
@@ -1781,13 +1851,28 @@
         <v>150</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$5:$G$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D53" xr:uid="{2DEA433D-6731-490A-8B1B-F7BA98B81D90}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D54" xr:uid="{2DEA433D-6731-490A-8B1B-F7BA98B81D90}">
       <formula1>$G$5:$G$11</formula1>
     </dataValidation>
   </dataValidations>
